--- a/data/trans_dic/P38C-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Clase-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.9163617951788113</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8898854296068719</v>
+        <v>0.8898854296068718</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.8846605106056714</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8221663563328433</v>
+        <v>0.8198164570893902</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8187958441541053</v>
+        <v>0.8220973977849849</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8859224621064932</v>
+        <v>0.8826823881179486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8594331930054632</v>
+        <v>0.8580444764391482</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8605801387423663</v>
+        <v>0.8577054524006337</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8467074202401129</v>
+        <v>0.848302602974631</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8911169322293946</v>
+        <v>0.8895690293081691</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8876124180697275</v>
+        <v>0.8884306191979326</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9433943613469331</v>
+        <v>0.9414454848245342</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9160230220148118</v>
+        <v>0.913689373408171</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.906571636359642</v>
+        <v>0.9044950189703089</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8914614116739016</v>
+        <v>0.8928896436850662</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8219905253642633</v>
+        <v>0.8220154616878589</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8073522157297021</v>
+        <v>0.8110101850411149</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8466887329132166</v>
+        <v>0.8406925674144903</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8391081060210778</v>
+        <v>0.8386131566281669</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8467164466224836</v>
+        <v>0.8427697361767422</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8369448302424373</v>
+        <v>0.8343119924229891</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8923318776634712</v>
+        <v>0.8944708261115705</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8831658479201009</v>
+        <v>0.8819656918574655</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9137425077739474</v>
+        <v>0.9101058194099008</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9018223647384975</v>
+        <v>0.9004204600864683</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8951850973381439</v>
+        <v>0.8942350419104985</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8839006611876714</v>
+        <v>0.8827652016624971</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.8631623698596204</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8560487205087557</v>
+        <v>0.8560487205087556</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.8820065521706906</v>
@@ -788,7 +788,7 @@
         <v>0.8677204999481349</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.8722400779672689</v>
+        <v>0.8722400779672687</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8284307046969761</v>
+        <v>0.8305132037961286</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8146639863524904</v>
+        <v>0.8180281266442644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8201574703658804</v>
+        <v>0.8257500623203632</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8676123729969606</v>
+        <v>0.8689879165987514</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8357292668554203</v>
+        <v>0.837474200978315</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8380382054236631</v>
+        <v>0.8430890908813149</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8893235946633793</v>
+        <v>0.8908811582638835</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8865703481012648</v>
+        <v>0.8872891828056707</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9254050634222429</v>
+        <v>0.923417768215795</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9458540492621621</v>
+        <v>0.9441940449025763</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8903275786248157</v>
+        <v>0.8905685077775425</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8969851607021553</v>
+        <v>0.9000020899458822</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.8374543612110608</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8119043370312065</v>
+        <v>0.8119043370312066</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.8584350400772319</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8143401683215306</v>
+        <v>0.813466315223572</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7799776580744437</v>
+        <v>0.7782535551255884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8306719271414695</v>
+        <v>0.8319811464527409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8626824968606868</v>
+        <v>0.8641340519274151</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8287487878104774</v>
+        <v>0.8290807448042742</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8256627122432232</v>
+        <v>0.8236348468610099</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8587794619984098</v>
+        <v>0.8586083834841777</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8377211858793689</v>
+        <v>0.837748868754649</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.881150819583474</v>
+        <v>0.8811239760310945</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9042346608560224</v>
+        <v>0.9057065844815286</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8616242284454874</v>
+        <v>0.8614049104515454</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8628426474493694</v>
+        <v>0.8606106571232229</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.8011839570342276</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7536009322616459</v>
+        <v>0.7536009322616458</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8698073588957316</v>
@@ -952,7 +952,7 @@
         <v>0.8385979531660471</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8321050347405802</v>
+        <v>0.83210503474058</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7660735721634545</v>
+        <v>0.7672103361798296</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7122025369577256</v>
+        <v>0.7071617271619667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8452405094332517</v>
+        <v>0.8429773518036199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8643894047739602</v>
+        <v>0.8656498043107864</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8181557388843056</v>
+        <v>0.8166526678389691</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8066578632667126</v>
+        <v>0.8072240664059093</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8301277048089701</v>
+        <v>0.8339767115158817</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7955404612816779</v>
+        <v>0.7953148939780615</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8936524235707821</v>
+        <v>0.8946290385845421</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9039770076316039</v>
+        <v>0.9048861345014217</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8606933083466815</v>
+        <v>0.8584413669716838</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8545845001786242</v>
+        <v>0.8526401141549962</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.8718523700884002</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8010162399593861</v>
+        <v>0.8010162399593862</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.8041493351756477</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4796116421600357</v>
+        <v>0.480086143569273</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3128211882870203</v>
+        <v>0.3231453237953561</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8499636763598306</v>
+        <v>0.8511201140622741</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7638529155206988</v>
+        <v>0.764303871206363</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7818846996116599</v>
+        <v>0.7811761954063432</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6829352254545633</v>
+        <v>0.6770139957266127</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5983845196137494</v>
+        <v>0.6038808248700324</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5274295836291324</v>
+        <v>0.5128470495546249</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8917038522943564</v>
+        <v>0.8916561982683501</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.831337479780533</v>
+        <v>0.8310829449314772</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8258492381164669</v>
+        <v>0.8245037962873898</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7549163157941775</v>
+        <v>0.7495600994358046</v>
       </c>
     </row>
     <row r="22">
@@ -1110,13 +1110,13 @@
         <v>0.8742144711648003</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8667949149949812</v>
+        <v>0.8667949149949811</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.8455917847530197</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.8310802807108246</v>
+        <v>0.8310802807108245</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8013770437045439</v>
+        <v>0.802511240144269</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7770483665058233</v>
+        <v>0.7767040349257998</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8609368482141024</v>
+        <v>0.8632616022572205</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8542949903629932</v>
+        <v>0.8550511734565427</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8363602417944332</v>
+        <v>0.8361315366895086</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8189512222831998</v>
+        <v>0.8203675180268735</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8287341427712203</v>
+        <v>0.8288955956317514</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8117133985953588</v>
+        <v>0.810591169907264</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8842649744095358</v>
+        <v>0.8844404971280354</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8785499971204473</v>
+        <v>0.8783819686114354</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8533874632405525</v>
+        <v>0.8533201304000171</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8406281477701379</v>
+        <v>0.8417773552966938</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>352000</v>
+        <v>350994</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>449678</v>
+        <v>451491</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>306555</v>
+        <v>305434</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>419757</v>
+        <v>419078</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>666232</v>
+        <v>664006</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>878548</v>
+        <v>880203</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>381520</v>
+        <v>380857</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>487471</v>
+        <v>487921</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>326442</v>
+        <v>325767</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>447396</v>
+        <v>446256</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>701837</v>
+        <v>700229</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>924985</v>
+        <v>926467</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>306570</v>
+        <v>306579</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>390122</v>
+        <v>391890</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>313496</v>
+        <v>311276</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>355063</v>
+        <v>354853</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>629298</v>
+        <v>626365</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>758569</v>
+        <v>756183</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>332804</v>
+        <v>333602</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>426756</v>
+        <v>426176</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>338323</v>
+        <v>336977</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>381600</v>
+        <v>381007</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>665321</v>
+        <v>664615</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>801128</v>
+        <v>800099</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>429065</v>
+        <v>430144</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>384205</v>
+        <v>385792</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>135531</v>
+        <v>136455</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>162675</v>
+        <v>162933</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>570949</v>
+        <v>572141</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>552359</v>
+        <v>555688</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>460603</v>
+        <v>461410</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>418117</v>
+        <v>418456</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>152923</v>
+        <v>152595</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>177345</v>
+        <v>177034</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>608250</v>
+        <v>608414</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>591211</v>
+        <v>593199</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>927371</v>
+        <v>926376</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>882812</v>
+        <v>880861</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>682250</v>
+        <v>683325</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>740286</v>
+        <v>741532</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1624450</v>
+        <v>1625101</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1643039</v>
+        <v>1639004</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>977979</v>
+        <v>977784</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>948169</v>
+        <v>948200</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>723709</v>
+        <v>723687</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>775943</v>
+        <v>777206</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1688890</v>
+        <v>1688460</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1717026</v>
+        <v>1712584</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>470371</v>
+        <v>471069</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>404505</v>
+        <v>401642</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>622155</v>
+        <v>620489</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>718178</v>
+        <v>719225</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1104569</v>
+        <v>1102540</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1128364</v>
+        <v>1129156</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>509701</v>
+        <v>512064</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>451838</v>
+        <v>451710</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>657790</v>
+        <v>658509</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>751069</v>
+        <v>751825</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1161998</v>
+        <v>1158958</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1195405</v>
+        <v>1192685</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>133835</v>
+        <v>133968</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>74210</v>
+        <v>76659</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>914473</v>
+        <v>915717</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>639552</v>
+        <v>639929</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1059412</v>
+        <v>1058452</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>733813</v>
+        <v>727451</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>166979</v>
+        <v>168512</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>125121</v>
+        <v>121662</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>959381</v>
+        <v>959329</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>696055</v>
+        <v>695842</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1118981</v>
+        <v>1117158</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>811157</v>
+        <v>805402</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2685315</v>
+        <v>2689116</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2673864</v>
+        <v>2672679</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3026046</v>
+        <v>3034217</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3097070</v>
+        <v>3099811</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5742203</v>
+        <v>5740632</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>5786992</v>
+        <v>5797000</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2776985</v>
+        <v>2777526</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2793148</v>
+        <v>2789286</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3108040</v>
+        <v>3108657</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>3185001</v>
+        <v>3184392</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>5859107</v>
+        <v>5858644</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5940169</v>
+        <v>5948289</v>
       </c>
     </row>
     <row r="32">
